--- a/resources/experiment 2/metrics/R2/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Edema macular diabético (INC).xlsx
@@ -468,7 +468,7 @@
         <v>0.7924297536174625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7924297536174625</v>
+        <v>0.7924297536174626</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9742030843184702</v>
+        <v>0.9980310093839279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9742030843184702</v>
+        <v>0.9978280801866646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9742030843184702</v>
+        <v>0.9793829366140386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991285057910099</v>
+        <v>0.9962994516008535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991285056863178</v>
+        <v>0.9961699293276275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991285056863178</v>
+        <v>0.9834222429220332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8920637529172301</v>
+        <v>0.9991939560479679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8920637529172301</v>
+        <v>0.9991551175097569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8920637529172301</v>
+        <v>0.9985103271362011</v>
       </c>
     </row>
   </sheetData>
